--- a/plans/ELK预研任务.xlsx
+++ b/plans/ELK预研任务.xlsx
@@ -261,12 +261,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +271,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -585,7 +585,7 @@
     <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -603,7 +603,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -611,19 +611,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>42898</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>42898</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -631,17 +631,17 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>42899</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>42900</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -649,17 +649,17 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>42901</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>42901</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -667,17 +667,17 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>42902</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>42902</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -685,19 +685,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>42905</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>42905</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -705,17 +705,17 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>42906</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>42906</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -723,17 +723,17 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>42907</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>42907</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -741,17 +741,17 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>42908</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>42908</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -759,17 +759,17 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>42909</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>42909</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -777,19 +777,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>42898</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>42898</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -797,17 +797,17 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>42898</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>42898</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -815,17 +815,17 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>42899</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>42900</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -833,19 +833,19 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>42901</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>42901</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -853,17 +853,17 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>42902</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>42902</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -871,17 +871,17 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>42905</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>42906</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -889,19 +889,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>42907</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>42909</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -909,19 +909,19 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>42898</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>42909</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -929,38 +929,38 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>42898</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>42909</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
